--- a/data/trans_orig/P6713-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>5166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1210</v>
+        <v>1938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13521</v>
+        <v>12998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06234857141551314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01460012461620142</v>
+        <v>0.02339164938916099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1631978566472134</v>
+        <v>0.1568783814133623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>2877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7873</v>
+        <v>7877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03276835287402664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01055563701230339</v>
+        <v>0.01044433247543486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08966982872579964</v>
+        <v>0.08971525500062834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -784,19 +784,19 @@
         <v>8043</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3643</v>
+        <v>3081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16272</v>
+        <v>15885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04712946332394322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02134920658245716</v>
+        <v>0.01805554518001871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09535196888834616</v>
+        <v>0.09308430594787673</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7154</v>
+        <v>6938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02456592732232996</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08635017480664402</v>
+        <v>0.08373627239705092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>2962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8279</v>
+        <v>8134</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03373718390140373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01020501341138239</v>
+        <v>0.01016941658467642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09428733546689921</v>
+        <v>0.09263969521619836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -855,19 +855,19 @@
         <v>4997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11239</v>
+        <v>10682</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02928456538839717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01117431647383585</v>
+        <v>0.01113944161470498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06585729103004995</v>
+        <v>0.06259533879717176</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>18832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11712</v>
+        <v>12398</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27394</v>
+        <v>27582</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2272957049270866</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1413578478091938</v>
+        <v>0.1496440741250705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3306441844978784</v>
+        <v>0.3329158843387639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -905,19 +905,19 @@
         <v>19313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13078</v>
+        <v>12088</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28434</v>
+        <v>27658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2199665540991795</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1489506229513393</v>
+        <v>0.1376777278610166</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3238499034344783</v>
+        <v>0.3150078502060929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -926,19 +926,19 @@
         <v>38145</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28193</v>
+        <v>27412</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49567</v>
+        <v>49804</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2235248356039646</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1652086997378116</v>
+        <v>0.1606321032012421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2904590330821625</v>
+        <v>0.2918467086138498</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>22869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15103</v>
+        <v>15628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32345</v>
+        <v>33478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2760311831800925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1822851558813125</v>
+        <v>0.1886239483037749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3903970110766046</v>
+        <v>0.4040764418374813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -976,19 +976,19 @@
         <v>12988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7845</v>
+        <v>7203</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20632</v>
+        <v>20798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1479255175024852</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08935338873955696</v>
+        <v>0.08203616962845611</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.234985130934767</v>
+        <v>0.2368770752236689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -997,19 +997,19 @@
         <v>35857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25843</v>
+        <v>25493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48059</v>
+        <v>48845</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2101204472483881</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1514363549289601</v>
+        <v>0.1493850938822537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2816212183494932</v>
+        <v>0.2862275669348704</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>33949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24505</v>
+        <v>24678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43339</v>
+        <v>42546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4097586131549779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2957731505490624</v>
+        <v>0.2978621544173143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5230993098265699</v>
+        <v>0.5135238385313187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1047,19 +1047,19 @@
         <v>49660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40708</v>
+        <v>40385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58439</v>
+        <v>59268</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5656023916229049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4636387677232846</v>
+        <v>0.4599587268331198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6655856396124941</v>
+        <v>0.675020858675104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -1068,19 +1068,19 @@
         <v>83609</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69979</v>
+        <v>70125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96809</v>
+        <v>97427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.489940688435307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4100682626877789</v>
+        <v>0.4109231143269152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5672917483516484</v>
+        <v>0.5709096578246884</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>17008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10293</v>
+        <v>9894</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28167</v>
+        <v>27061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04443919746942893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02689569202419844</v>
+        <v>0.02585195188832538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07359809223082729</v>
+        <v>0.07070801527213907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1193,19 +1193,19 @@
         <v>18769</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11525</v>
+        <v>11900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29320</v>
+        <v>28274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06826199735887507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04191539667239707</v>
+        <v>0.04327800502029572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1066343441630615</v>
+        <v>0.1028324526236702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1214,19 +1214,19 @@
         <v>35777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24850</v>
+        <v>24694</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49017</v>
+        <v>49094</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0543988648733611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03778404982371205</v>
+        <v>0.03754709326241178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07453091023414367</v>
+        <v>0.0746484870405445</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>20106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12755</v>
+        <v>11968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32635</v>
+        <v>30157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05253413559715742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03332701130362475</v>
+        <v>0.03127005857548098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08527132320393564</v>
+        <v>0.07879750872545967</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1264,19 +1264,19 @@
         <v>18982</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11925</v>
+        <v>11800</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28566</v>
+        <v>30219</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06903705862706837</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04337197524171731</v>
+        <v>0.04291699800409316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1038946826769714</v>
+        <v>0.1099053082394634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -1285,19 +1285,19 @@
         <v>39088</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28534</v>
+        <v>27760</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53585</v>
+        <v>52558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0594335607416981</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04338612339978706</v>
+        <v>0.04221005280423491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08147632034919093</v>
+        <v>0.07991513448983673</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>85710</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>70983</v>
+        <v>70395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103747</v>
+        <v>102497</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2239493086547212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1854703522666084</v>
+        <v>0.1839336340982057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2710785510266657</v>
+        <v>0.2678114142832398</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1335,19 +1335,19 @@
         <v>44053</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32522</v>
+        <v>33217</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57806</v>
+        <v>58063</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1602189182945074</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1182793383121916</v>
+        <v>0.1208071490746806</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2102377372027271</v>
+        <v>0.2111730497043276</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -1356,19 +1356,19 @@
         <v>129763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111735</v>
+        <v>109097</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153514</v>
+        <v>151568</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1973053585541417</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1698933631833272</v>
+        <v>0.1658833160769245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.233418509210182</v>
+        <v>0.2304597679146642</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>78319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62279</v>
+        <v>64505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95103</v>
+        <v>95645</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2046381459411397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1627282779424102</v>
+        <v>0.1685441415664868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2484933586483499</v>
+        <v>0.2499087976350459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1406,19 +1406,19 @@
         <v>68094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54011</v>
+        <v>54621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82853</v>
+        <v>83705</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2476534480223943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1964361146011551</v>
+        <v>0.198654653023354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3013301750457202</v>
+        <v>0.3044319066793431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -1427,19 +1427,19 @@
         <v>146413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125380</v>
+        <v>126886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167273</v>
+        <v>171475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2226216786911571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1906417723957169</v>
+        <v>0.192931642212514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2543395322891611</v>
+        <v>0.2607284480818945</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>181577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>160867</v>
+        <v>161426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203826</v>
+        <v>201368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4744392123375528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4203263715396978</v>
+        <v>0.4217881985861491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5325737640062982</v>
+        <v>0.526150979118718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -1477,19 +1477,19 @@
         <v>125058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109199</v>
+        <v>107425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>142992</v>
+        <v>141224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4548285776971549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3971522748328051</v>
+        <v>0.390697109859146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5200554986975241</v>
+        <v>0.5136243898864712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>288</v>
@@ -1498,19 +1498,19 @@
         <v>306635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281336</v>
+        <v>280354</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331275</v>
+        <v>332879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.466240537139642</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4277739106724163</v>
+        <v>0.4262799278528901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5037069721362141</v>
+        <v>0.5061458818907998</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>12178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6541</v>
+        <v>6520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22023</v>
+        <v>20437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02870952222594252</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01542184599678334</v>
+        <v>0.01537092286878021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05192101709370197</v>
+        <v>0.04818033538473081</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1623,19 +1623,19 @@
         <v>17818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10499</v>
+        <v>11507</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27461</v>
+        <v>28404</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06234160534447681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03673279657844919</v>
+        <v>0.04025933786744167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0960782279169107</v>
+        <v>0.09937646075686611</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1644,19 +1644,19 @@
         <v>29996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20436</v>
+        <v>20404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42351</v>
+        <v>41793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04224874888949642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.028783030146247</v>
+        <v>0.02873873673423682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05964986311374732</v>
+        <v>0.05886438012340419</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>26054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16990</v>
+        <v>16313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38969</v>
+        <v>38180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06142284668960036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04005441986487891</v>
+        <v>0.03845765399557447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0918714545341936</v>
+        <v>0.0900126182761075</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1694,19 +1694,19 @@
         <v>17661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10523</v>
+        <v>10543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27383</v>
+        <v>27103</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0617898787143961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03681689741935382</v>
+        <v>0.03688660167176862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09580634950071171</v>
+        <v>0.09482640786845535</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1715,19 +1715,19 @@
         <v>43714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31520</v>
+        <v>32283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59931</v>
+        <v>60348</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0615706023239742</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04439489026043567</v>
+        <v>0.045470166032401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08441090391522117</v>
+        <v>0.08499818630368855</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>87398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70739</v>
+        <v>72362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105671</v>
+        <v>107324</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2060464195526953</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1667718989191309</v>
+        <v>0.1705985715174239</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2491257379235668</v>
+        <v>0.2530235469125552</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -1765,19 +1765,19 @@
         <v>64556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51102</v>
+        <v>51510</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80580</v>
+        <v>80588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2258645162338211</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1787924284185241</v>
+        <v>0.1802201541958512</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2819281628541648</v>
+        <v>0.2819561653393318</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>148</v>
@@ -1786,19 +1786,19 @@
         <v>151954</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130709</v>
+        <v>129537</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>174645</v>
+        <v>176652</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2140245665518064</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1841007918254463</v>
+        <v>0.1824503074075668</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2459835938730481</v>
+        <v>0.2488105387129317</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>108425</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>91064</v>
+        <v>91153</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127140</v>
+        <v>128847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2556169488522903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2146885219170001</v>
+        <v>0.2148973357355751</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2997395861166773</v>
+        <v>0.3037631175293518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1836,19 +1836,19 @@
         <v>60306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47263</v>
+        <v>47008</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77261</v>
+        <v>75184</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2109928079454201</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1653595655078313</v>
+        <v>0.1644674561319256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2703149606606024</v>
+        <v>0.2630496004630599</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -1857,19 +1857,19 @@
         <v>168730</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>147487</v>
+        <v>145302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>194576</v>
+        <v>192347</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2376526628972663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2077319783186003</v>
+        <v>0.2046546378394263</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2740555875378133</v>
+        <v>0.2709162262964158</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>190114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168244</v>
+        <v>169713</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210919</v>
+        <v>211572</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4482042626794715</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3966442342428829</v>
+        <v>0.4001081335491761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4972529219660146</v>
+        <v>0.4987932068694793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1907,19 +1907,19 @@
         <v>125477</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108037</v>
+        <v>108508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141845</v>
+        <v>140889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4390111917618859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3779923775449986</v>
+        <v>0.3796411058420829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.496277025623846</v>
+        <v>0.4929340952312815</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>302</v>
@@ -1928,19 +1928,19 @@
         <v>315591</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>288281</v>
+        <v>288424</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341634</v>
+        <v>343362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4445034193374567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4060371177405737</v>
+        <v>0.4062383621558276</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4811842004906652</v>
+        <v>0.4836178115709472</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>16467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10225</v>
+        <v>9316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27192</v>
+        <v>26228</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04506427759044721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02798237446066875</v>
+        <v>0.02549488155711527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07441762049399922</v>
+        <v>0.07177779039445736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2053,19 +2053,19 @@
         <v>12843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6577</v>
+        <v>7311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21583</v>
+        <v>22328</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05725885294982622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02932461751846379</v>
+        <v>0.03259449858045573</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09622604528887434</v>
+        <v>0.09954919817650799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2074,19 +2074,19 @@
         <v>29309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18986</v>
+        <v>20173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42296</v>
+        <v>42031</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04970255688449974</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03219581405532908</v>
+        <v>0.03420879982880871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07172476502719363</v>
+        <v>0.07127630772161132</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>18659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11577</v>
+        <v>10894</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30408</v>
+        <v>29918</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05106371191370418</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03168332406343247</v>
+        <v>0.02981350622998926</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08321784350293063</v>
+        <v>0.08187584595101471</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2124,19 +2124,19 @@
         <v>18214</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10374</v>
+        <v>10926</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28137</v>
+        <v>29040</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08120698288584065</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04625234837641266</v>
+        <v>0.04871495456277752</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1254453941106988</v>
+        <v>0.1294730201213784</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2145,19 +2145,19 @@
         <v>36873</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25536</v>
+        <v>25518</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51209</v>
+        <v>51760</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06252888437643722</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0433045255043951</v>
+        <v>0.04327242800836831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08684050263388199</v>
+        <v>0.08777344130820561</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>67975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52731</v>
+        <v>51044</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85095</v>
+        <v>86291</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1860271809452961</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1443089440047294</v>
+        <v>0.1396936872855603</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2328815260899704</v>
+        <v>0.2361550738769586</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -2195,19 +2195,19 @@
         <v>54874</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41743</v>
+        <v>41300</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69536</v>
+        <v>69670</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2446531180665117</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1861073121165789</v>
+        <v>0.1841353926970572</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3100237534001757</v>
+        <v>0.3106198425711747</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -2216,19 +2216,19 @@
         <v>122849</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102178</v>
+        <v>102092</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>147125</v>
+        <v>146392</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.208325904945933</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1732721156793351</v>
+        <v>0.173126637992576</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2494941447156186</v>
+        <v>0.2482499667050805</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>83394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66480</v>
+        <v>67063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100818</v>
+        <v>100323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2282263642748962</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1819382576106206</v>
+        <v>0.1835320634075787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2759104155874854</v>
+        <v>0.2745554793790559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2266,19 +2266,19 @@
         <v>42577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29660</v>
+        <v>30703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57881</v>
+        <v>57820</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1898270481027034</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1322375354749037</v>
+        <v>0.1368857299034913</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2580579008505705</v>
+        <v>0.2577847027640512</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -2287,19 +2287,19 @@
         <v>125971</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106332</v>
+        <v>106672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>147303</v>
+        <v>150129</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2136209558979433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1803173910754503</v>
+        <v>0.1808930248628888</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2497957917504472</v>
+        <v>0.254587081460803</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>178907</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>158780</v>
+        <v>157631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>199989</v>
+        <v>201687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4896184652756563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4345357385586313</v>
+        <v>0.4313905921256696</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5473125685009733</v>
+        <v>0.5519603931480503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -2337,19 +2337,19 @@
         <v>95786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81021</v>
+        <v>79290</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111798</v>
+        <v>112148</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4270539979951181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3612247869139593</v>
+        <v>0.3535097562945818</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4984448404082642</v>
+        <v>0.5000049942967073</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>244</v>
@@ -2358,19 +2358,19 @@
         <v>274693</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>249179</v>
+        <v>245436</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>299436</v>
+        <v>298936</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4658216978951868</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4225558265930594</v>
+        <v>0.4162082776287828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5077804614711753</v>
+        <v>0.5069340067620642</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>7009</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3198</v>
+        <v>2648</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15090</v>
+        <v>14391</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04484576492156667</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0204619509961227</v>
+        <v>0.01694220415618837</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09654942048809134</v>
+        <v>0.09207709906059949</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2483,19 +2483,19 @@
         <v>7043</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2066</v>
+        <v>2920</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14366</v>
+        <v>14272</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.102713479497244</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03012735431570577</v>
+        <v>0.04258425653767731</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2095305775919321</v>
+        <v>0.2081562654587943</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2504,19 +2504,19 @@
         <v>14052</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8181</v>
+        <v>7480</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24058</v>
+        <v>23205</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06249087069906566</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0363808072439608</v>
+        <v>0.03326684504096887</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1069886398600518</v>
+        <v>0.1031972063719352</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>8825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4378</v>
+        <v>4269</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16510</v>
+        <v>16206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0564644556016503</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02800945044525732</v>
+        <v>0.02731252712266442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1056299310097994</v>
+        <v>0.1036866416943381</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2554,19 +2554,19 @@
         <v>5948</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13716</v>
+        <v>12730</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08674965016661239</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02936478012088746</v>
+        <v>0.02912708255892467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2000471533042606</v>
+        <v>0.1856592985734372</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2575,19 +2575,19 @@
         <v>14773</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8113</v>
+        <v>8521</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24056</v>
+        <v>25621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06569906017363566</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03607869757151178</v>
+        <v>0.03789377630027461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1069805705276139</v>
+        <v>0.1139392575947798</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>27415</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18480</v>
+        <v>18651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37831</v>
+        <v>39397</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1754061953104238</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1182391558623304</v>
+        <v>0.1193314793217675</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2420442037204692</v>
+        <v>0.2520661271140286</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2625,19 +2625,19 @@
         <v>14902</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9374</v>
+        <v>8723</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23112</v>
+        <v>22613</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2173482349569204</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1367231798451697</v>
+        <v>0.1272191294025746</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3370861063862212</v>
+        <v>0.3298050771562523</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2646,19 +2646,19 @@
         <v>42318</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31518</v>
+        <v>31048</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55121</v>
+        <v>55969</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1881952216528872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1401665648090303</v>
+        <v>0.1380766869326617</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2451346321654154</v>
+        <v>0.248902164209475</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>31833</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22604</v>
+        <v>22646</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42320</v>
+        <v>42394</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2036693556983328</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1446252499823771</v>
+        <v>0.1448917561801266</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2707649825073095</v>
+        <v>0.2712401954203467</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2696,19 +2696,19 @@
         <v>14755</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8681</v>
+        <v>8532</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24006</v>
+        <v>22681</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.215193392447976</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1266072929346954</v>
+        <v>0.1244398485070076</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.350119588160607</v>
+        <v>0.3308028212949825</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -2717,19 +2717,19 @@
         <v>46588</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35759</v>
+        <v>34579</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60753</v>
+        <v>59069</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2071832813634861</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1590261383595076</v>
+        <v>0.1537795459112702</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2701812631331949</v>
+        <v>0.2626914539584038</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>81214</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68124</v>
+        <v>68008</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>94228</v>
+        <v>94346</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5196142284680265</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4358647067715062</v>
+        <v>0.4351209920131067</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6028800093052962</v>
+        <v>0.6036351960379133</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -2767,19 +2767,19 @@
         <v>25917</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18578</v>
+        <v>18226</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34635</v>
+        <v>34995</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3779952429312472</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2709488218032722</v>
+        <v>0.2658181743253403</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5051358873328415</v>
+        <v>0.5103939174926412</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>100</v>
@@ -2788,19 +2788,19 @@
         <v>107131</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>92201</v>
+        <v>91188</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>122445</v>
+        <v>121407</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4764315661109254</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4100347107177533</v>
+        <v>0.4055275702589594</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5445325284397556</v>
+        <v>0.5399183482758397</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>57827</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>43441</v>
+        <v>44484</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>74387</v>
+        <v>77246</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04097020168855608</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03077783085729212</v>
+        <v>0.03151710401479188</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05270300978670856</v>
+        <v>0.05472880085389245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>55</v>
@@ -2913,19 +2913,19 @@
         <v>59350</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45584</v>
+        <v>46179</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>76566</v>
+        <v>75896</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06304198816227242</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04841974113738107</v>
+        <v>0.04905131899830232</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08132920147748759</v>
+        <v>0.08061756832343743</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>108</v>
@@ -2934,19 +2934,19 @@
         <v>117177</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>95608</v>
+        <v>96381</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>138536</v>
+        <v>140290</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04980160379330366</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04063479548176175</v>
+        <v>0.04096329472882724</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05887978862717598</v>
+        <v>0.05962504798394787</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>75679</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>57502</v>
+        <v>59308</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>95781</v>
+        <v>95318</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05361821888654143</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04074042929490913</v>
+        <v>0.04201997186906358</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06786086628963134</v>
+        <v>0.06753302966407149</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -2984,19 +2984,19 @@
         <v>63767</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>48947</v>
+        <v>48033</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>81404</v>
+        <v>79553</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06773412410677462</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05199165001617936</v>
+        <v>0.05102066710406538</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08646796701477473</v>
+        <v>0.08450173806203747</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>125</v>
@@ -3005,19 +3005,19 @@
         <v>139446</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>116262</v>
+        <v>116408</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>165863</v>
+        <v>168079</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05926629976213511</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04941284960677176</v>
+        <v>0.0494750005720719</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07049377828188524</v>
+        <v>0.07143565787822687</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>287329</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>256709</v>
+        <v>255463</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>319524</v>
+        <v>318011</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2035725429649957</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1818782318342404</v>
+        <v>0.1809956978825017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2263824928180745</v>
+        <v>0.225310696722705</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>183</v>
@@ -3055,19 +3055,19 @@
         <v>197699</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>172170</v>
+        <v>173820</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224723</v>
+        <v>224642</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2099980341458622</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1828800955174539</v>
+        <v>0.1846333079030607</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2387027404872804</v>
+        <v>0.2386167916430957</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>455</v>
@@ -3076,19 +3076,19 @@
         <v>485028</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>443651</v>
+        <v>443459</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>524386</v>
+        <v>522894</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2061435218210261</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1885576365252397</v>
+        <v>0.1884757452566495</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2228709145525423</v>
+        <v>0.222236664055712</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>324839</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>293464</v>
+        <v>295171</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>358438</v>
+        <v>359976</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2301485546263789</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2079186888727022</v>
+        <v>0.2091287018194831</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2539533399073665</v>
+        <v>0.2550430506011466</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>181</v>
@@ -3126,19 +3126,19 @@
         <v>198719</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>173680</v>
+        <v>173708</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>225632</v>
+        <v>226566</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2110813573353118</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1844844717995069</v>
+        <v>0.1845146598086098</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2396682688594845</v>
+        <v>0.2406604212914588</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>493</v>
@@ -3147,19 +3147,19 @@
         <v>523559</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>484068</v>
+        <v>484589</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>562502</v>
+        <v>569727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2225193540408943</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2057351844109541</v>
+        <v>0.2059565200232651</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2390708985048234</v>
+        <v>0.2421413133782709</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>665760</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>625397</v>
+        <v>625337</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>705310</v>
+        <v>703800</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4716904818335279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4430936413271135</v>
+        <v>0.4430510079047873</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4997115646508757</v>
+        <v>0.4986416742444228</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>393</v>
@@ -3197,19 +3197,19 @@
         <v>421898</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>393019</v>
+        <v>390834</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>453549</v>
+        <v>452471</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.448144496249779</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4174688453678889</v>
+        <v>0.4151479605997987</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.481763977148427</v>
+        <v>0.4806188465559316</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1014</v>
@@ -3218,19 +3218,19 @@
         <v>1087658</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1040299</v>
+        <v>1035771</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1138577</v>
+        <v>1139382</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4622692205826409</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.442140799828048</v>
+        <v>0.4402165694039177</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4839104035365496</v>
+        <v>0.4842522082312795</v>
       </c>
     </row>
     <row r="39">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8598</v>
+        <v>8062</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03139367995799662</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1086814481701729</v>
+        <v>0.1019110870830849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3584,19 +3584,19 @@
         <v>4963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1925</v>
+        <v>1911</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11555</v>
+        <v>10409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05402846149254641</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0209516566719925</v>
+        <v>0.02080064110342832</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1257985925641106</v>
+        <v>0.1133214472114534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3605,19 +3605,19 @@
         <v>7446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3090</v>
+        <v>3267</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14143</v>
+        <v>14227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04355479926415196</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01807598729985743</v>
+        <v>0.01910933439168025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08272407244043962</v>
+        <v>0.08321513531957338</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>10471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5244</v>
+        <v>5234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17696</v>
+        <v>17656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1323564002512129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06628380079590206</v>
+        <v>0.06615881229248906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2236872740482033</v>
+        <v>0.2231844741434377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3655,19 +3655,19 @@
         <v>13157</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7458</v>
+        <v>7374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20329</v>
+        <v>20508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.143236236745819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08118856972640015</v>
+        <v>0.08028393738968037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2213176388693469</v>
+        <v>0.2232639132074576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3676,19 +3676,19 @@
         <v>23628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15861</v>
+        <v>15552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32946</v>
+        <v>33836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1382018726027091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09277185711395865</v>
+        <v>0.09096412058347716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1927061501501893</v>
+        <v>0.197915423151434</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>23314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16263</v>
+        <v>15653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32674</v>
+        <v>32292</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2947127032665165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2055731496493514</v>
+        <v>0.1978694290714169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4130216372849367</v>
+        <v>0.4081997523189858</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3726,19 +3726,19 @@
         <v>22889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15842</v>
+        <v>14635</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31471</v>
+        <v>31701</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2491827808114285</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1724695793565804</v>
+        <v>0.159328445775879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3426189498175443</v>
+        <v>0.3451188429032145</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -3747,19 +3747,19 @@
         <v>46203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35955</v>
+        <v>35346</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59815</v>
+        <v>59202</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2702505798688966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2103080089794304</v>
+        <v>0.2067446262308182</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3498713062866375</v>
+        <v>0.3462833178330464</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>17190</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10423</v>
+        <v>10327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25316</v>
+        <v>25368</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2172893754571493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1317550675445143</v>
+        <v>0.1305352770177067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3200100601313414</v>
+        <v>0.3206729056548994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3797,19 +3797,19 @@
         <v>26124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18374</v>
+        <v>17479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35508</v>
+        <v>34491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2843995310171611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.200036781453745</v>
+        <v>0.1902852953608701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3865683191225182</v>
+        <v>0.3754917356490839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -3818,19 +3818,19 @@
         <v>43313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33347</v>
+        <v>32051</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55335</v>
+        <v>54827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2533460348587078</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1950551626223913</v>
+        <v>0.1874697519533489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3236646240275159</v>
+        <v>0.3206953477481191</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>25651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17657</v>
+        <v>18064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34494</v>
+        <v>34143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3242478410671247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2232027464143868</v>
+        <v>0.2283419178715022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.436025835746764</v>
+        <v>0.4315952239008432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -3868,19 +3868,19 @@
         <v>24723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16936</v>
+        <v>17699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34108</v>
+        <v>33658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2691529899330449</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.184379125179653</v>
+        <v>0.1926888519726459</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3713191980684661</v>
+        <v>0.3664263662330177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -3889,19 +3889,19 @@
         <v>50374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38769</v>
+        <v>38777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62366</v>
+        <v>62584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2946467134055346</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.226768718090587</v>
+        <v>0.2268111862749501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3647883626694291</v>
+        <v>0.3660625197308084</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>18462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11436</v>
+        <v>10402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28299</v>
+        <v>28168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05364026738284311</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03322742990618804</v>
+        <v>0.0302229761317585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08222154937752696</v>
+        <v>0.0818388621000138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -4014,19 +4014,19 @@
         <v>20812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13164</v>
+        <v>13419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32389</v>
+        <v>30265</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07603602735159912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04809430924705699</v>
+        <v>0.04902428725900469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1183322818732315</v>
+        <v>0.1105710769652284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -4035,19 +4035,19 @@
         <v>39275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29372</v>
+        <v>29064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52695</v>
+        <v>52937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06356107704177583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04753481369004142</v>
+        <v>0.04703644332900412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08528076298145047</v>
+        <v>0.085671835431396</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>32936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23323</v>
+        <v>23318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45958</v>
+        <v>46541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09569247454132083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06776345784715521</v>
+        <v>0.0677480685228619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1335283281834268</v>
+        <v>0.1352204056731734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -4085,19 +4085,19 @@
         <v>30859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21209</v>
+        <v>21484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41329</v>
+        <v>41419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1127409894033768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07748546475273706</v>
+        <v>0.07848965542798127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1509919646412337</v>
+        <v>0.15132123277262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -4106,19 +4106,19 @@
         <v>63795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49551</v>
+        <v>49368</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79056</v>
+        <v>80862</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1032445768655956</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08019297326086362</v>
+        <v>0.07989624138283231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1279420940924658</v>
+        <v>0.130864948589003</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>84656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69434</v>
+        <v>69509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101658</v>
+        <v>101696</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2459614372409095</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2017332508563392</v>
+        <v>0.2019517351481906</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2953589521436269</v>
+        <v>0.2954679344088155</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>67</v>
@@ -4156,19 +4156,19 @@
         <v>64104</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51734</v>
+        <v>51342</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79515</v>
+        <v>78671</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2342002709503036</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1890046599589496</v>
+        <v>0.1875753547657097</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2905031502690338</v>
+        <v>0.2874167786545758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>148</v>
@@ -4177,19 +4177,19 @@
         <v>148761</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>128938</v>
+        <v>129088</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171146</v>
+        <v>171091</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.240751509455519</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2086704286745236</v>
+        <v>0.2089135500753292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2769784826576978</v>
+        <v>0.276889783629944</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>89061</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72880</v>
+        <v>74000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106000</v>
+        <v>106247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2587593924273847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2117471129292067</v>
+        <v>0.2150017051458834</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3079735958557302</v>
+        <v>0.3086910808730643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -4227,19 +4227,19 @@
         <v>69965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56944</v>
+        <v>56595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84718</v>
+        <v>84368</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2556107980774134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2080405630625848</v>
+        <v>0.2067661995372608</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3095094272971726</v>
+        <v>0.3082317580202609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -4248,19 +4248,19 @@
         <v>159026</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137315</v>
+        <v>140632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179362</v>
+        <v>182407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2573646371128593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2222282967327534</v>
+        <v>0.2275958710548419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2902756113229353</v>
+        <v>0.295204288389389</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>119070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101790</v>
+        <v>102485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136699</v>
+        <v>138006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3459464284075419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2957433213878873</v>
+        <v>0.2977622802453119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3971678174499998</v>
+        <v>0.4009647503630452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -4298,19 +4298,19 @@
         <v>87976</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73579</v>
+        <v>72414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103607</v>
+        <v>103208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3214119142173071</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2688141353759435</v>
+        <v>0.2645572319188594</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3785206824948465</v>
+        <v>0.3770623970400914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -4319,19 +4319,19 @@
         <v>207045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>185032</v>
+        <v>183562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>233165</v>
+        <v>230448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3350781995242502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2994522385504085</v>
+        <v>0.2970729957039223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3773499098875727</v>
+        <v>0.3729520057547386</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>23288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15044</v>
+        <v>15041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34682</v>
+        <v>35503</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05067139085232227</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03273391622227664</v>
+        <v>0.03272648356126036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07546288715426307</v>
+        <v>0.07724991330517918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -4444,19 +4444,19 @@
         <v>23543</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15708</v>
+        <v>15382</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33809</v>
+        <v>33877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07416979703783046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04948893565789925</v>
+        <v>0.04845952424571543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1065141193907424</v>
+        <v>0.1067293496784524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -4465,19 +4465,19 @@
         <v>46830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35238</v>
+        <v>34645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61665</v>
+        <v>63267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06027074954786645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04535167716705788</v>
+        <v>0.04458828358755185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07936340740651658</v>
+        <v>0.08142473431822846</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>41922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31291</v>
+        <v>30275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56105</v>
+        <v>55242</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09121549001407957</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06808533339855626</v>
+        <v>0.06587428445162428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.122076110379657</v>
+        <v>0.1201985836076527</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -4515,19 +4515,19 @@
         <v>38575</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28120</v>
+        <v>28385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50262</v>
+        <v>51282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1215295458342152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0885918322477392</v>
+        <v>0.08942697807619147</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.158348806486452</v>
+        <v>0.161561633102221</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -4536,19 +4536,19 @@
         <v>80497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63755</v>
+        <v>64679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96107</v>
+        <v>96140</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1035991169306018</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08205289567513106</v>
+        <v>0.08324199481207696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1236898488078311</v>
+        <v>0.1237324569791001</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>114691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95839</v>
+        <v>97580</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134318</v>
+        <v>135279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2495526254222563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2085332565574845</v>
+        <v>0.2123214665737949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2922564432508358</v>
+        <v>0.2943477023841787</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -4586,19 +4586,19 @@
         <v>66369</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53082</v>
+        <v>53451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82183</v>
+        <v>80872</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2090929684866493</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.167234166408523</v>
+        <v>0.1683961394843707</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2589141007477175</v>
+        <v>0.2547829577403336</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>175</v>
@@ -4607,19 +4607,19 @@
         <v>181060</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>158404</v>
+        <v>158130</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>203169</v>
+        <v>205569</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2330244082930845</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2038654289878848</v>
+        <v>0.2035126143130012</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2614779364746903</v>
+        <v>0.2645676563797052</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>110688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93430</v>
+        <v>92718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130491</v>
+        <v>128598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2408415261453978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2032901511451295</v>
+        <v>0.2017417707028521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2839298550347671</v>
+        <v>0.2798116777629959</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -4657,19 +4657,19 @@
         <v>87373</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71881</v>
+        <v>71856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102267</v>
+        <v>103519</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2752648988507175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2264595327576533</v>
+        <v>0.2263805470725441</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3221876074784564</v>
+        <v>0.3261317167558271</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>193</v>
@@ -4678,19 +4678,19 @@
         <v>198061</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>174175</v>
+        <v>175331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>222710</v>
+        <v>224138</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2549038544369463</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2241629491894947</v>
+        <v>0.2256511131067806</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.286627534528951</v>
+        <v>0.2884654278114606</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>168999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>147768</v>
+        <v>148829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189949</v>
+        <v>189859</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.367718967565944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3215236361471461</v>
+        <v>0.3238318387412515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4133022853789878</v>
+        <v>0.413107440009968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -4728,19 +4728,19 @@
         <v>101554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86908</v>
+        <v>86067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119573</v>
+        <v>120500</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3199427897905875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.273800802598175</v>
+        <v>0.2711491537336856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3767086125381512</v>
+        <v>0.3796300598558194</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>260</v>
@@ -4749,19 +4749,19 @@
         <v>270553</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>243948</v>
+        <v>242516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>300009</v>
+        <v>296690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.348201870791501</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.313961504101001</v>
+        <v>0.3121177702738013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3861114137180668</v>
+        <v>0.3818402405226948</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>23041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14334</v>
+        <v>14782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34596</v>
+        <v>33970</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06265857202013213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03898103300337135</v>
+        <v>0.04019723824973088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09408010612518332</v>
+        <v>0.09237754931569182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4874,19 +4874,19 @@
         <v>22475</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13702</v>
+        <v>14191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32805</v>
+        <v>33447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09244333804248947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05636067099147625</v>
+        <v>0.05836974876137971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1349362066489541</v>
+        <v>0.1375756046430426</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -4895,19 +4895,19 @@
         <v>45516</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33655</v>
+        <v>33134</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58704</v>
+        <v>59592</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07451296961228304</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05509575532381254</v>
+        <v>0.05424256668334924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09610233457010929</v>
+        <v>0.09755730797306375</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>32684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22814</v>
+        <v>22911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45545</v>
+        <v>46204</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08888109535966882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06203915265725236</v>
+        <v>0.06230317264595842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.123855811590812</v>
+        <v>0.1256459888869569</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4945,19 +4945,19 @@
         <v>32559</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22456</v>
+        <v>22773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43758</v>
+        <v>45201</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1339240354980602</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09236513914329761</v>
+        <v>0.09367040077362654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1799859659405046</v>
+        <v>0.1859232572084702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -4966,19 +4966,19 @@
         <v>65243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>50123</v>
+        <v>51177</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>82005</v>
+        <v>82762</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1068082773532806</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08205424124205832</v>
+        <v>0.08378102357745996</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1342486098215198</v>
+        <v>0.1354878880628031</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>96508</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79671</v>
+        <v>80026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114464</v>
+        <v>115726</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2624444643584059</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2166587046650679</v>
+        <v>0.2176229977027447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3112739163405636</v>
+        <v>0.314704674087476</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -5016,19 +5016,19 @@
         <v>49780</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37035</v>
+        <v>36707</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63054</v>
+        <v>63581</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.204755431082429</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1523331958394086</v>
+        <v>0.150985258475872</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2593539381467945</v>
+        <v>0.2615233844020108</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -5037,19 +5037,19 @@
         <v>146288</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125699</v>
+        <v>123809</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>169164</v>
+        <v>167656</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2394841115173958</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2057780953348042</v>
+        <v>0.2026848058956909</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2769347441689079</v>
+        <v>0.2744659383530452</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>104065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86409</v>
+        <v>87192</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119984</v>
+        <v>122222</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2829941971007863</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2349805532338625</v>
+        <v>0.237109799275597</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3262838757483695</v>
+        <v>0.3323694941565099</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -5087,19 +5087,19 @@
         <v>71176</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58331</v>
+        <v>58362</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86927</v>
+        <v>85580</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.292764240410168</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2399270389981943</v>
+        <v>0.2400554772644988</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3575509502135789</v>
+        <v>0.3520106635045326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -5108,19 +5108,19 @@
         <v>175241</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>151825</v>
+        <v>152274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>200556</v>
+        <v>198417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2868826942538278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2485480718566296</v>
+        <v>0.2492834729807511</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3283247467621243</v>
+        <v>0.3248240705600883</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>111430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94909</v>
+        <v>92795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132894</v>
+        <v>131876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3030216711610069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2580944555124892</v>
+        <v>0.2523462968791546</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3613931746052375</v>
+        <v>0.3586250335927195</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -5158,19 +5158,19 @@
         <v>67128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53976</v>
+        <v>52905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81546</v>
+        <v>82853</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2761129549668533</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2220138262688597</v>
+        <v>0.2176113381831695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3354190183251278</v>
+        <v>0.3407949682851967</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -5179,19 +5179,19 @@
         <v>178558</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>155829</v>
+        <v>155677</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203853</v>
+        <v>202398</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2923119472632128</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2551037864889796</v>
+        <v>0.2548550974418077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3337217737953216</v>
+        <v>0.3313402992965366</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>14248</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7614</v>
+        <v>7657</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23280</v>
+        <v>23532</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0859706475637434</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04594047495521828</v>
+        <v>0.04620174449240416</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1404699245839189</v>
+        <v>0.1419948478067596</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5304,19 +5304,19 @@
         <v>17865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10690</v>
+        <v>10191</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27672</v>
+        <v>27614</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1687304629641031</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1009666142386131</v>
+        <v>0.09624726235603548</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.261353547941188</v>
+        <v>0.2608076138477036</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5325,19 +5325,19 @@
         <v>32113</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22800</v>
+        <v>22290</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45485</v>
+        <v>44644</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1182325914256523</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08394385876438358</v>
+        <v>0.0820681360287938</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1674670262897738</v>
+        <v>0.1643692800975737</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>17579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11035</v>
+        <v>10715</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28699</v>
+        <v>27006</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1060699272160661</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06658705835339528</v>
+        <v>0.06465550276846803</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1731712978425607</v>
+        <v>0.1629561971054818</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -5375,19 +5375,19 @@
         <v>12474</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6571</v>
+        <v>6938</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20655</v>
+        <v>20922</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1178180753457023</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06206375796326733</v>
+        <v>0.06552369085128666</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1950779354760247</v>
+        <v>0.19759893875493</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -5396,19 +5396,19 @@
         <v>30053</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20344</v>
+        <v>20655</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42157</v>
+        <v>40699</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1106496630891607</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07490271384467304</v>
+        <v>0.07604779750965428</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1552129821226549</v>
+        <v>0.1498478153968274</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>38745</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27985</v>
+        <v>27555</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50960</v>
+        <v>51522</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2337895421525144</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1688623825496178</v>
+        <v>0.1662705272543848</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3074978496794509</v>
+        <v>0.3108846467395482</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -5446,19 +5446,19 @@
         <v>26327</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17014</v>
+        <v>17336</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37327</v>
+        <v>36326</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.248654282775348</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1606975563242044</v>
+        <v>0.163732112058065</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3525459806922901</v>
+        <v>0.3430900049034118</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -5467,19 +5467,19 @@
         <v>65072</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>51812</v>
+        <v>50594</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>84422</v>
+        <v>81219</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2395842074157915</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1907622489829616</v>
+        <v>0.1862768332230006</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.310826622280123</v>
+        <v>0.2990328002754983</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>40444</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28990</v>
+        <v>29785</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51490</v>
+        <v>53075</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2440398173727905</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1749270287396158</v>
+        <v>0.1797215792325801</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3106954678498722</v>
+        <v>0.3202561498407643</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -5517,19 +5517,19 @@
         <v>18723</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11033</v>
+        <v>11398</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28608</v>
+        <v>28971</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1768355353050867</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1042028092908277</v>
+        <v>0.10765380201098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2701947325948476</v>
+        <v>0.2736225313356669</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>52</v>
@@ -5538,19 +5538,19 @@
         <v>59167</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46141</v>
+        <v>45341</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73472</v>
+        <v>74305</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2178418278671406</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1698812755197263</v>
+        <v>0.1669354514873563</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2705111326161826</v>
+        <v>0.27357678564213</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>54711</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42018</v>
+        <v>41851</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>68383</v>
+        <v>66409</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3301300656948856</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2535412930447058</v>
+        <v>0.2525340925429229</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4126295079885959</v>
+        <v>0.4007157541722814</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -5588,19 +5588,19 @@
         <v>30489</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21145</v>
+        <v>20945</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41637</v>
+        <v>42442</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2879616436097599</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1997062380570498</v>
+        <v>0.1978174262610377</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3932475358847897</v>
+        <v>0.4008549890991567</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -5609,19 +5609,19 @@
         <v>85200</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69573</v>
+        <v>70106</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>101254</v>
+        <v>102852</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3136917102022549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2561545583007016</v>
+        <v>0.2581165949627034</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3727980930913559</v>
+        <v>0.3786835763187935</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>81523</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64738</v>
+        <v>64557</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102744</v>
+        <v>100800</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0575587606373489</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04570797170722726</v>
+        <v>0.0455800028878209</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07254173603670502</v>
+        <v>0.07116980090624336</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -5734,19 +5734,19 @@
         <v>89657</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>72397</v>
+        <v>71601</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>109258</v>
+        <v>108630</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08687867407558929</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07015353770408872</v>
+        <v>0.06938225289666398</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1058715822385039</v>
+        <v>0.1052631852980634</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>160</v>
@@ -5755,19 +5755,19 @@
         <v>171180</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>147121</v>
+        <v>146042</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>198166</v>
+        <v>197914</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06991728895047837</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06009054075300843</v>
+        <v>0.05964995120565109</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08093959711478881</v>
+        <v>0.08083679113936243</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>135591</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>113480</v>
+        <v>115751</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>159293</v>
+        <v>161058</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.095733403523157</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08012192611337542</v>
+        <v>0.08172544256211339</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1124680129698759</v>
+        <v>0.1137143267316382</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>129</v>
@@ -5805,19 +5805,19 @@
         <v>127625</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>107930</v>
+        <v>108172</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>149681</v>
+        <v>149340</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1236697509508109</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1045848823339014</v>
+        <v>0.1048200440786965</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1450426323500126</v>
+        <v>0.1447119396186168</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>257</v>
@@ -5826,19 +5826,19 @@
         <v>263216</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>233184</v>
+        <v>233149</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>294934</v>
+        <v>292667</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1075087500424202</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09524245796805071</v>
+        <v>0.09522829907096718</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1204639233633707</v>
+        <v>0.1195381803637954</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>357915</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>323256</v>
+        <v>322970</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>391257</v>
+        <v>391622</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2527050402941973</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.228233768240073</v>
+        <v>0.2280320215842515</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.276245721110308</v>
+        <v>0.2765032171552299</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>226</v>
@@ -5876,19 +5876,19 @@
         <v>229469</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>202957</v>
+        <v>203186</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>257399</v>
+        <v>256040</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2223576348026695</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1966676050309536</v>
+        <v>0.1968887130873595</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2494219340512678</v>
+        <v>0.2481049892559543</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>554</v>
@@ -5897,19 +5897,19 @@
         <v>587384</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>542348</v>
+        <v>543975</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>630525</v>
+        <v>632416</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2399134176044826</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2215185247087846</v>
+        <v>0.2221833466159541</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.257533917103024</v>
+        <v>0.2583062509257925</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>361447</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>329200</v>
+        <v>331507</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>394046</v>
+        <v>395663</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2551987306753759</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2324305389881145</v>
+        <v>0.2340591798086376</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2782150801357452</v>
+        <v>0.2793565612027912</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>269</v>
@@ -5947,19 +5947,19 @@
         <v>273361</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>246527</v>
+        <v>248508</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>304496</v>
+        <v>302915</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2648889790226505</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2388872481075323</v>
+        <v>0.2408067325763638</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2950591425721498</v>
+        <v>0.2935275944344596</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>610</v>
@@ -5968,19 +5968,19 @@
         <v>634808</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>596154</v>
+        <v>592149</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>683585</v>
+        <v>681903</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2592832314298992</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2434953833870779</v>
+        <v>0.2418595533913369</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2792058754911459</v>
+        <v>0.2785190106627887</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>479861</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>443728</v>
+        <v>443004</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>518390</v>
+        <v>516152</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3388040648699209</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3132926556445216</v>
+        <v>0.3127811411106473</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3660072832766987</v>
+        <v>0.3644272741674435</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>299</v>
@@ -6018,19 +6018,19 @@
         <v>311870</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>283252</v>
+        <v>282900</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>342976</v>
+        <v>343380</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3022049611482797</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2744741895633009</v>
+        <v>0.2741329577532028</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3323472349499201</v>
+        <v>0.3327380825307923</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>744</v>
@@ -6039,19 +6039,19 @@
         <v>791730</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>748342</v>
+        <v>744254</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>842931</v>
+        <v>840381</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3233773119727196</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3056553736334194</v>
+        <v>0.3039859314156927</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3442898146644517</v>
+        <v>0.3432481886780963</v>
       </c>
     </row>
     <row r="39">
